--- a/2026/data/sorteo_grupos.xlsx
+++ b/2026/data/sorteo_grupos.xlsx
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ruso</t>
+          <t>Armada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puche</t>
+          <t>Gonzo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fale</t>
+          <t>Kike</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kike</t>
+          <t>Puche</t>
         </is>
       </c>
     </row>
@@ -477,31 +477,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coquina</t>
+          <t>Papu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tony</t>
+          <t>Palop</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Armada</t>
+          <t>Fale</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Papu</t>
+          <t>Ruso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gonzo</t>
+          <t>Coquina</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Palop</t>
+          <t>Tony</t>
         </is>
       </c>
     </row>

--- a/2026/data/sorteo_grupos.xlsx
+++ b/2026/data/sorteo_grupos.xlsx
@@ -453,67 +453,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gonzo</t>
+          <t>Fale</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kike</t>
+          <t>Tony</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puche</t>
+          <t>Ruso</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kero</t>
+          <t>Palop</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Papu</t>
+          <t>Lope</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palop</t>
+          <t>Kero</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fale</t>
+          <t>Puche</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ruso</t>
+          <t>Kike</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coquina</t>
+          <t>Gonzo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lope</t>
+          <t>Papu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tony</t>
+          <t>Coquina</t>
         </is>
       </c>
     </row>
